--- a/ZADANIE3.xlsx
+++ b/ZADANIE3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>X</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>X СЛЕДУЕТ Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(X СЛЕДУЕТ Y) (+)(X СЛЕДУЕТ Z) </t>
+  </si>
+  <si>
+    <t>Y (+) Z</t>
+  </si>
+  <si>
+    <t>X СЛЕДУЕТ (Y (+) Z)</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -69,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -351,310 +366,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <f>--OR(NOT(A2),B2)</f>
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>--OR(NOT(A2),C2)</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>H2</f>
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>--_xlfn.XOR(B2,C2)</f>
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>--OR(NOT(A2),G2)</f>
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>--(H2=F2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D9" si="0">--OR(NOT(A3),B3)</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E9" si="1">--OR(NOT(A3),C3)</f>
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F9" si="2">--_xlfn.XOR(D3,E3)</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G9" si="3">--_xlfn.XOR(B3,C3)</f>
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H9" si="4">--OR(NOT(A3),G3)</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I9" si="5">--(H3=F3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
